--- a/biology/Histoire de la zoologie et de la botanique/Franklin_Lorenzo_Burns/Franklin_Lorenzo_Burns.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Franklin_Lorenzo_Burns/Franklin_Lorenzo_Burns.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Franklin Lorenzo Burns est un ornithologue américain, né le 18 janvier 1869 près de Berwyn, Chester (Pennsylvanie) et mort le 7 février 1946 à Berwyn.
 C’est l’un des fondateurs du Wilson Ornithological Club dont il assure le secrétariat en 1906 et la présidence de 1909 à 1911.
@@ -512,9 +524,11 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1919 : The ornithology of Chester County, Pennsylvania, by Franklin Lorenzo Burns, in co-operation with local ornithologists[1] (R.G. Badger, Boston).</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1919 : The ornithology of Chester County, Pennsylvania, by Franklin Lorenzo Burns, in co-operation with local ornithologists (R.G. Badger, Boston).</t>
         </is>
       </c>
     </row>
@@ -542,7 +556,9 @@
           <t>Note</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Exemplaire numérique sur Internet Archive.
@@ -574,7 +590,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Zoomen
  Portail de l’histoire de la zoologie et de la botanique   Portail de l'ornithologie                    </t>
